--- a/mercados/expectativas_pbi_peru.xlsx
+++ b/mercados/expectativas_pbi_peru.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2452,6 +2452,17 @@
         <v>44713</v>
       </c>
     </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>2.53</v>
+      </c>
+      <c r="C189" s="2">
+        <v>44743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/expectativas_pbi_peru.xlsx
+++ b/mercados/expectativas_pbi_peru.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2463,6 +2463,17 @@
         <v>44743</v>
       </c>
     </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>2.5</v>
+      </c>
+      <c r="C190" s="2">
+        <v>44774</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/expectativas_pbi_peru.xlsx
+++ b/mercados/expectativas_pbi_peru.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2474,6 +2474,17 @@
         <v>44774</v>
       </c>
     </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>2.57</v>
+      </c>
+      <c r="C191" s="2">
+        <v>44805</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/expectativas_pbi_peru.xlsx
+++ b/mercados/expectativas_pbi_peru.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2485,6 +2485,17 @@
         <v>44805</v>
       </c>
     </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>2.35</v>
+      </c>
+      <c r="C192" s="2">
+        <v>44835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/expectativas_pbi_peru.xlsx
+++ b/mercados/expectativas_pbi_peru.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2496,6 +2496,17 @@
         <v>44835</v>
       </c>
     </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>2.33</v>
+      </c>
+      <c r="C193" s="2">
+        <v>44866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/expectativas_pbi_peru.xlsx
+++ b/mercados/expectativas_pbi_peru.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2507,6 +2507,83 @@
         <v>44866</v>
       </c>
     </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>2.5</v>
+      </c>
+      <c r="C194" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>2.31</v>
+      </c>
+      <c r="C195" s="2">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>2.19</v>
+      </c>
+      <c r="C196" s="2">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>2.13</v>
+      </c>
+      <c r="C197" s="2">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>2.12</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>2.18</v>
+      </c>
+      <c r="C199" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>2.15</v>
+      </c>
+      <c r="C200" s="2">
+        <v>45078</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
